--- a/data/142/STANOR/13332 Employment and unemployment for persons aged 15-74.xlsx
+++ b/data/142/STANOR/13332 Employment and unemployment for persons aged 15-74.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
-  <x:si>
-    <x:t>13332: Employment and unemployment for persons aged 15-74, by contents, month, sex and age</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+  <x:si>
+    <x:t>13332: Employment, unemployment, labour force and  break and man-weeks worked for persons aged 15-74, by contents, month, sex and age</x:t>
   </x:si>
   <x:si>
     <x:t>2006M02</x:t>
@@ -586,6 +586,15 @@
     <x:t>2021M10</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
     <x:t>Both sexes</x:t>
   </x:si>
   <x:si>
@@ -616,16 +625,16 @@
     <x:t>Labour force in per cent of the population, seasonally adjusted</x:t>
   </x:si>
   <x:si>
-    <x:t>The seasonal-adjustment during the corona crisis is done in a way that the numbers from the crisis (from March 2020) is not included in the basis for the seasonal pattern. Read more about this under About the statistics. The break adjustments are based on preliminary break estimates. Man-weeks worked is not break adjusted due to problems inseparating the possible effect of the corona crisis from the effect of the restructuring of the LFS.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>The seasonal-adjustment during the corona crisis is done in a way that the numbers from the crisis (from March 2020) is not included in the basis for the seasonal pattern. The figures are break adjusted because of a break between 2020 and 2021, see About the statistics for more information. Man-weeks worked is not break adjusted due to problems inseparating the possible effect of the corona crisis from the effect of the restructuring of the LFS.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Labour force, seasonally adjusted (1 000 persons):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211223 08:00</x:t>
+    <x:t>20220324 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Total employment (1 000 persons), seasonally adjusted:</x:t>
@@ -706,7 +715,7 @@
     <x:t>3-months moving average</x:t>
   </x:si>
   <x:si>
-    <x:t>End of the centre month of the quarter</x:t>
+    <x:t>End of the month</x:t>
   </x:si>
   <x:si>
     <x:t>Day adjusted</x:t>
@@ -1125,22 +1134,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:GH136"/>
+  <x:dimension ref="A1:GK136"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="190" width="11.210625" style="0" customWidth="1"/>
+    <x:col min="1" max="193" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:190">
+    <x:row r="1" spans="1:193">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:190">
+    <x:row r="3" spans="1:193">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1708,1148 +1716,1175 @@
       <x:c r="GH3" s="2" t="s">
         <x:v>189</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:190">
+      <x:c r="GI3" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="GJ3" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="GK3" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:193">
       <x:c r="B4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="P4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="Q4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="R4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="S4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="T4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="U4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="X4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="Y4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="Z4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AA4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AB4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AC4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AD4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AE4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AF4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AG4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AH4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AI4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AJ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AK4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AL4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AM4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AN4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AO4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AP4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AQ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AR4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AS4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AT4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AU4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AV4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AW4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AX4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AY4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="AZ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BA4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BB4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BC4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BD4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BE4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BF4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BG4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BH4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BI4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BJ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BK4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BL4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BM4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BN4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BO4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BP4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BQ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BR4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BS4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BT4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BU4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BV4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BW4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BX4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BY4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="BZ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CA4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CB4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CC4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CD4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CE4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CF4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CG4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CH4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CI4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CJ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CK4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CL4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CM4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CN4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CO4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CP4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CQ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CR4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CS4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CT4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CU4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CV4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CW4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CX4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CY4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="CZ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DA4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DB4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DC4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DD4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DE4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DF4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DG4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DH4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DI4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DJ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DK4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DL4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DM4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DN4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DO4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DP4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DQ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DR4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DS4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DT4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DU4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DV4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DW4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DX4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DY4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="DZ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EA4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EB4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EC4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="ED4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EE4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EF4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EG4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EH4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EI4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EJ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EK4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EL4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EM4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EN4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EO4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EP4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EQ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="ER4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="ES4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="ET4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EU4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EV4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EW4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EX4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EY4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="EZ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FA4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FB4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FC4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FD4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FE4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FF4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FG4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FH4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FI4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FJ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FK4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FL4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FM4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FN4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FO4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FP4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FQ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FR4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FS4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FT4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FU4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FV4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FW4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FX4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FY4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="FZ4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="GA4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="GB4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="GC4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="GD4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="GE4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="GF4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="GG4" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="GH4" s="2" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:190">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="GI4" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="GJ4" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="GK4" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:193">
       <x:c r="B5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="K5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="N5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="O5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="P5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="Q5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="R5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="S5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="T5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="U5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="X5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="Y5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="Z5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AA5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AB5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AC5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AD5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AE5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AF5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AG5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AH5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AI5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AJ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AK5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AL5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AM5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AN5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AO5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AP5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AQ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AR5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AS5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AT5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AU5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AV5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AW5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AX5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AY5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="AZ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BA5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BB5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BC5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BD5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BE5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BF5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BG5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BH5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BI5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BJ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BK5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BL5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BM5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BN5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BO5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BP5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BQ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BR5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BS5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BT5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BU5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BV5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BW5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BX5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BY5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="BZ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CA5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CB5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CC5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CD5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CE5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CF5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CG5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CH5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CI5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CJ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CK5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CL5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CM5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CN5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CO5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CP5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CQ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CR5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CS5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CT5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CU5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CV5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CW5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CX5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CY5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="CZ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DA5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DB5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DC5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DD5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DE5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DF5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DG5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DH5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DI5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DJ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DK5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DL5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DM5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DN5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DO5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DP5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DQ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DR5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DS5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DT5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DU5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DV5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DW5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DX5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DY5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="DZ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EA5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EB5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EC5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="ED5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EE5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EF5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EG5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EH5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EI5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EJ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EK5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EL5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EM5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EN5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EO5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EP5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EQ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="ER5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="ES5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="ET5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EU5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EV5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EW5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EX5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EY5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="EZ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FA5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FB5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FC5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FD5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FE5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FF5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FG5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FH5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FI5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FJ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FK5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FL5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FM5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FN5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FO5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FP5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FQ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FR5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FS5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FT5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FU5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FV5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FW5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FX5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FY5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="FZ5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="GA5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="GB5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="GC5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="GD5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="GE5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="GF5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="GG5" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="GH5" s="2" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:190">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="GI5" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="GJ5" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="GK5" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:193">
       <x:c r="A6" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B6" s="3" t="n">
         <x:v>2413</x:v>
@@ -3140,7 +3175,7 @@
         <x:v>2709</x:v>
       </x:c>
       <x:c r="CT6" s="3" t="n">
-        <x:v>2708</x:v>
+        <x:v>2707</x:v>
       </x:c>
       <x:c r="CU6" s="3" t="n">
         <x:v>2717</x:v>
@@ -3158,7 +3193,7 @@
         <x:v>2723</x:v>
       </x:c>
       <x:c r="CZ6" s="3" t="n">
-        <x:v>2727</x:v>
+        <x:v>2728</x:v>
       </x:c>
       <x:c r="DA6" s="3" t="n">
         <x:v>2727</x:v>
@@ -3173,10 +3208,10 @@
         <x:v>2748</x:v>
       </x:c>
       <x:c r="DE6" s="3" t="n">
-        <x:v>2758</x:v>
+        <x:v>2757</x:v>
       </x:c>
       <x:c r="DF6" s="3" t="n">
-        <x:v>2758</x:v>
+        <x:v>2757</x:v>
       </x:c>
       <x:c r="DG6" s="3" t="n">
         <x:v>2758</x:v>
@@ -3185,7 +3220,7 @@
         <x:v>2763</x:v>
       </x:c>
       <x:c r="DI6" s="3" t="n">
-        <x:v>2771</x:v>
+        <x:v>2772</x:v>
       </x:c>
       <x:c r="DJ6" s="3" t="n">
         <x:v>2768</x:v>
@@ -3212,7 +3247,7 @@
         <x:v>2790</x:v>
       </x:c>
       <x:c r="DR6" s="3" t="n">
-        <x:v>2783</x:v>
+        <x:v>2782</x:v>
       </x:c>
       <x:c r="DS6" s="3" t="n">
         <x:v>2778</x:v>
@@ -3227,13 +3262,13 @@
         <x:v>2770</x:v>
       </x:c>
       <x:c r="DW6" s="3" t="n">
-        <x:v>2773</x:v>
+        <x:v>2774</x:v>
       </x:c>
       <x:c r="DX6" s="3" t="n">
         <x:v>2776</x:v>
       </x:c>
       <x:c r="DY6" s="3" t="n">
-        <x:v>2780</x:v>
+        <x:v>2781</x:v>
       </x:c>
       <x:c r="DZ6" s="3" t="n">
         <x:v>2772</x:v>
@@ -3281,10 +3316,10 @@
         <x:v>2766</x:v>
       </x:c>
       <x:c r="EO6" s="3" t="n">
-        <x:v>2774</x:v>
+        <x:v>2773</x:v>
       </x:c>
       <x:c r="EP6" s="3" t="n">
-        <x:v>2787</x:v>
+        <x:v>2786</x:v>
       </x:c>
       <x:c r="EQ6" s="3" t="n">
         <x:v>2790</x:v>
@@ -3305,7 +3340,7 @@
         <x:v>2814</x:v>
       </x:c>
       <x:c r="EW6" s="3" t="n">
-        <x:v>2815</x:v>
+        <x:v>2816</x:v>
       </x:c>
       <x:c r="EX6" s="3" t="n">
         <x:v>2822</x:v>
@@ -3314,7 +3349,7 @@
         <x:v>2813</x:v>
       </x:c>
       <x:c r="EZ6" s="3" t="n">
-        <x:v>2808</x:v>
+        <x:v>2807</x:v>
       </x:c>
       <x:c r="FA6" s="3" t="n">
         <x:v>2810</x:v>
@@ -3335,10 +3370,10 @@
         <x:v>2825</x:v>
       </x:c>
       <x:c r="FG6" s="3" t="n">
-        <x:v>2838</x:v>
+        <x:v>2839</x:v>
       </x:c>
       <x:c r="FH6" s="3" t="n">
-        <x:v>2850</x:v>
+        <x:v>2851</x:v>
       </x:c>
       <x:c r="FI6" s="3" t="n">
         <x:v>2847</x:v>
@@ -3353,7 +3388,7 @@
         <x:v>2847</x:v>
       </x:c>
       <x:c r="FM6" s="3" t="n">
-        <x:v>2855</x:v>
+        <x:v>2854</x:v>
       </x:c>
       <x:c r="FN6" s="3" t="n">
         <x:v>2847</x:v>
@@ -3365,19 +3400,19 @@
         <x:v>2831</x:v>
       </x:c>
       <x:c r="FQ6" s="3" t="n">
-        <x:v>2822</x:v>
+        <x:v>2823</x:v>
       </x:c>
       <x:c r="FR6" s="3" t="n">
-        <x:v>2834</x:v>
+        <x:v>2835</x:v>
       </x:c>
       <x:c r="FS6" s="3" t="n">
         <x:v>2833</x:v>
       </x:c>
       <x:c r="FT6" s="3" t="n">
-        <x:v>2842</x:v>
+        <x:v>2843</x:v>
       </x:c>
       <x:c r="FU6" s="3" t="n">
-        <x:v>2851</x:v>
+        <x:v>2852</x:v>
       </x:c>
       <x:c r="FV6" s="3" t="n">
         <x:v>2854</x:v>
@@ -3389,13 +3424,13 @@
         <x:v>2836</x:v>
       </x:c>
       <x:c r="FY6" s="3" t="n">
-        <x:v>2838</x:v>
+        <x:v>2837</x:v>
       </x:c>
       <x:c r="FZ6" s="3" t="n">
-        <x:v>2829</x:v>
+        <x:v>2828</x:v>
       </x:c>
       <x:c r="GA6" s="3" t="n">
-        <x:v>2843</x:v>
+        <x:v>2842</x:v>
       </x:c>
       <x:c r="GB6" s="3" t="n">
         <x:v>2852</x:v>
@@ -3404,24 +3439,33 @@
         <x:v>2880</x:v>
       </x:c>
       <x:c r="GD6" s="3" t="n">
-        <x:v>2891</x:v>
+        <x:v>2892</x:v>
       </x:c>
       <x:c r="GE6" s="3" t="n">
-        <x:v>2892</x:v>
+        <x:v>2893</x:v>
       </x:c>
       <x:c r="GF6" s="3" t="n">
         <x:v>2890</x:v>
       </x:c>
       <x:c r="GG6" s="3" t="n">
-        <x:v>2891</x:v>
+        <x:v>2892</x:v>
       </x:c>
       <x:c r="GH6" s="3" t="n">
         <x:v>2901</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:190">
+      <x:c r="GI6" s="3" t="n">
+        <x:v>2900</x:v>
+      </x:c>
+      <x:c r="GJ6" s="3" t="n">
+        <x:v>2896</x:v>
+      </x:c>
+      <x:c r="GK6" s="3" t="n">
+        <x:v>2906</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:193">
       <x:c r="A7" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B7" s="3" t="n">
         <x:v>2319</x:v>
@@ -3619,7 +3663,7 @@
         <x:v>2539</x:v>
       </x:c>
       <x:c r="BO7" s="3" t="n">
-        <x:v>2540</x:v>
+        <x:v>2541</x:v>
       </x:c>
       <x:c r="BP7" s="3" t="n">
         <x:v>2553</x:v>
@@ -3814,7 +3858,7 @@
         <x:v>2633</x:v>
       </x:c>
       <x:c r="EB7" s="3" t="n">
-        <x:v>2635</x:v>
+        <x:v>2634</x:v>
       </x:c>
       <x:c r="EC7" s="3" t="n">
         <x:v>2632</x:v>
@@ -3835,7 +3879,7 @@
         <x:v>2637</x:v>
       </x:c>
       <x:c r="EI7" s="3" t="n">
-        <x:v>2643</x:v>
+        <x:v>2644</x:v>
       </x:c>
       <x:c r="EJ7" s="3" t="n">
         <x:v>2647</x:v>
@@ -3850,13 +3894,13 @@
         <x:v>2653</x:v>
       </x:c>
       <x:c r="EN7" s="3" t="n">
-        <x:v>2655</x:v>
+        <x:v>2654</x:v>
       </x:c>
       <x:c r="EO7" s="3" t="n">
         <x:v>2663</x:v>
       </x:c>
       <x:c r="EP7" s="3" t="n">
-        <x:v>2679</x:v>
+        <x:v>2678</x:v>
       </x:c>
       <x:c r="EQ7" s="3" t="n">
         <x:v>2680</x:v>
@@ -3883,10 +3927,10 @@
         <x:v>2711</x:v>
       </x:c>
       <x:c r="EY7" s="3" t="n">
-        <x:v>2710</x:v>
+        <x:v>2709</x:v>
       </x:c>
       <x:c r="EZ7" s="3" t="n">
-        <x:v>2705</x:v>
+        <x:v>2704</x:v>
       </x:c>
       <x:c r="FA7" s="3" t="n">
         <x:v>2703</x:v>
@@ -3907,7 +3951,7 @@
         <x:v>2723</x:v>
       </x:c>
       <x:c r="FG7" s="3" t="n">
-        <x:v>2729</x:v>
+        <x:v>2730</x:v>
       </x:c>
       <x:c r="FH7" s="3" t="n">
         <x:v>2744</x:v>
@@ -3925,10 +3969,10 @@
         <x:v>2737</x:v>
       </x:c>
       <x:c r="FM7" s="3" t="n">
-        <x:v>2749</x:v>
+        <x:v>2748</x:v>
       </x:c>
       <x:c r="FN7" s="3" t="n">
-        <x:v>2747</x:v>
+        <x:v>2746</x:v>
       </x:c>
       <x:c r="FO7" s="3" t="n">
         <x:v>2732</x:v>
@@ -3946,7 +3990,7 @@
         <x:v>2686</x:v>
       </x:c>
       <x:c r="FT7" s="3" t="n">
-        <x:v>2692</x:v>
+        <x:v>2693</x:v>
       </x:c>
       <x:c r="FU7" s="3" t="n">
         <x:v>2705</x:v>
@@ -3961,10 +4005,10 @@
         <x:v>2698</x:v>
       </x:c>
       <x:c r="FY7" s="3" t="n">
-        <x:v>2700</x:v>
+        <x:v>2699</x:v>
       </x:c>
       <x:c r="FZ7" s="3" t="n">
-        <x:v>2695</x:v>
+        <x:v>2694</x:v>
       </x:c>
       <x:c r="GA7" s="3" t="n">
         <x:v>2706</x:v>
@@ -3976,7 +4020,7 @@
         <x:v>2736</x:v>
       </x:c>
       <x:c r="GD7" s="3" t="n">
-        <x:v>2749</x:v>
+        <x:v>2750</x:v>
       </x:c>
       <x:c r="GE7" s="3" t="n">
         <x:v>2768</x:v>
@@ -3990,10 +4034,19 @@
       <x:c r="GH7" s="3" t="n">
         <x:v>2796</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:190">
+      <x:c r="GI7" s="3" t="n">
+        <x:v>2799</x:v>
+      </x:c>
+      <x:c r="GJ7" s="3" t="n">
+        <x:v>2800</x:v>
+      </x:c>
+      <x:c r="GK7" s="3" t="n">
+        <x:v>2814</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:193">
       <x:c r="A8" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B8" s="3" t="n">
         <x:v>1792</x:v>
@@ -4398,7 +4451,7 @@
         <x:v>2005</x:v>
       </x:c>
       <x:c r="EF8" s="3" t="n">
-        <x:v>2005</x:v>
+        <x:v>2006</x:v>
       </x:c>
       <x:c r="EG8" s="3" t="n">
         <x:v>2007</x:v>
@@ -4431,7 +4484,7 @@
         <x:v>2017</x:v>
       </x:c>
       <x:c r="EQ8" s="3" t="n">
-        <x:v>2024</x:v>
+        <x:v>2025</x:v>
       </x:c>
       <x:c r="ER8" s="3" t="n">
         <x:v>2021</x:v>
@@ -4515,7 +4568,7 @@
         <x:v>1989</x:v>
       </x:c>
       <x:c r="FS8" s="3" t="n">
-        <x:v>2049</x:v>
+        <x:v>2048</x:v>
       </x:c>
       <x:c r="FT8" s="3" t="n">
         <x:v>2050</x:v>
@@ -4527,7 +4580,7 @@
         <x:v>2017</x:v>
       </x:c>
       <x:c r="FW8" s="3" t="n">
-        <x:v>2009</x:v>
+        <x:v>2008</x:v>
       </x:c>
       <x:c r="FX8" s="3" t="n">
         <x:v>2009</x:v>
@@ -4554,18 +4607,27 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="GF8" s="3" t="n">
-        <x:v>2071</x:v>
+        <x:v>2070</x:v>
       </x:c>
       <x:c r="GG8" s="3" t="n">
         <x:v>2092</x:v>
       </x:c>
       <x:c r="GH8" s="3" t="n">
-        <x:v>2058</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:190">
+        <x:v>2059</x:v>
+      </x:c>
+      <x:c r="GI8" s="3" t="n">
+        <x:v>2032</x:v>
+      </x:c>
+      <x:c r="GJ8" s="3" t="n">
+        <x:v>2026</x:v>
+      </x:c>
+      <x:c r="GK8" s="3" t="n">
+        <x:v>2035</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:193">
       <x:c r="A9" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B9" s="3" t="n">
         <x:v>94</x:v>
@@ -4964,7 +5026,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="ED9" s="3" t="n">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="EE9" s="3" t="n">
         <x:v>123</x:v>
@@ -4994,7 +5056,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="EN9" s="3" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="EO9" s="3" t="n">
         <x:v>111</x:v>
@@ -5039,7 +5101,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="FC9" s="3" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="FD9" s="3" t="n">
         <x:v>92</x:v>
@@ -5087,16 +5149,16 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="FS9" s="3" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="FT9" s="3" t="n">
         <x:v>150</x:v>
       </x:c>
       <x:c r="FU9" s="3" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="FV9" s="3" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="FW9" s="3" t="n">
         <x:v>144</x:v>
@@ -5134,10 +5196,19 @@
       <x:c r="GH9" s="3" t="n">
         <x:v>105</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:190">
+      <x:c r="GI9" s="3" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="GJ9" s="3" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="GK9" s="3" t="n">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:193">
       <x:c r="A10" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B10" s="4" t="n">
         <x:v>3.9</x:v>
@@ -5389,7 +5460,7 @@
         <x:v>3.5</x:v>
       </x:c>
       <x:c r="CG10" s="4" t="n">
-        <x:v>3.7</x:v>
+        <x:v>3.6</x:v>
       </x:c>
       <x:c r="CH10" s="4" t="n">
         <x:v>3.7</x:v>
@@ -5706,10 +5777,19 @@
       <x:c r="GH10" s="4" t="n">
         <x:v>3.6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:190">
+      <x:c r="GI10" s="4" t="n">
+        <x:v>3.5</x:v>
+      </x:c>
+      <x:c r="GJ10" s="4" t="n">
+        <x:v>3.3</x:v>
+      </x:c>
+      <x:c r="GK10" s="4" t="n">
+        <x:v>3.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:193">
       <x:c r="A11" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B11" s="3" t="n">
         <x:v>3382</x:v>
@@ -6278,10 +6358,19 @@
       <x:c r="GH11" s="3" t="n">
         <x:v>4054</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:190">
+      <x:c r="GI11" s="3" t="n">
+        <x:v>4057</x:v>
+      </x:c>
+      <x:c r="GJ11" s="3" t="n">
+        <x:v>4059</x:v>
+      </x:c>
+      <x:c r="GK11" s="3" t="n">
+        <x:v>4062</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:193">
       <x:c r="A12" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B12" s="4" t="n">
         <x:v>68.6</x:v>
@@ -6650,7 +6739,7 @@
         <x:v>67.3</x:v>
       </x:c>
       <x:c r="DT12" s="4" t="n">
-        <x:v>67.1</x:v>
+        <x:v>67.2</x:v>
       </x:c>
       <x:c r="DU12" s="4" t="n">
         <x:v>67.1</x:v>
@@ -6701,7 +6790,7 @@
         <x:v>66.7</x:v>
       </x:c>
       <x:c r="EK12" s="4" t="n">
-        <x:v>66.8</x:v>
+        <x:v>66.9</x:v>
       </x:c>
       <x:c r="EL12" s="4" t="n">
         <x:v>66.9</x:v>
@@ -6788,7 +6877,7 @@
         <x:v>68.2</x:v>
       </x:c>
       <x:c r="FN12" s="4" t="n">
-        <x:v>68.2</x:v>
+        <x:v>68.1</x:v>
       </x:c>
       <x:c r="FO12" s="4" t="n">
         <x:v>67.8</x:v>
@@ -6850,10 +6939,19 @@
       <x:c r="GH12" s="4" t="n">
         <x:v>69</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:190">
+      <x:c r="GI12" s="4" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="GJ12" s="4" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="GK12" s="4" t="n">
+        <x:v>69.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:193">
       <x:c r="A13" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B13" s="4" t="n">
         <x:v>71.4</x:v>
@@ -7204,7 +7302,7 @@
         <x:v>70.8</x:v>
       </x:c>
       <x:c r="DN13" s="4" t="n">
-        <x:v>70.7</x:v>
+        <x:v>70.8</x:v>
       </x:c>
       <x:c r="DO13" s="4" t="n">
         <x:v>70.7</x:v>
@@ -7249,7 +7347,7 @@
         <x:v>69.6</x:v>
       </x:c>
       <x:c r="EC13" s="4" t="n">
-        <x:v>69.5</x:v>
+        <x:v>69.4</x:v>
       </x:c>
       <x:c r="ED13" s="4" t="n">
         <x:v>69.7</x:v>
@@ -7342,7 +7440,7 @@
         <x:v>70.7</x:v>
       </x:c>
       <x:c r="FH13" s="4" t="n">
-        <x:v>70.9</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="FI13" s="4" t="n">
         <x:v>70.8</x:v>
@@ -7360,7 +7458,7 @@
         <x:v>70.8</x:v>
       </x:c>
       <x:c r="FN13" s="4" t="n">
-        <x:v>70.7</x:v>
+        <x:v>70.6</x:v>
       </x:c>
       <x:c r="FO13" s="4" t="n">
         <x:v>70.3</x:v>
@@ -7375,7 +7473,7 @@
         <x:v>70.3</x:v>
       </x:c>
       <x:c r="FS13" s="4" t="n">
-        <x:v>70.2</x:v>
+        <x:v>70.3</x:v>
       </x:c>
       <x:c r="FT13" s="4" t="n">
         <x:v>70.4</x:v>
@@ -7393,7 +7491,7 @@
         <x:v>70.1</x:v>
       </x:c>
       <x:c r="FY13" s="4" t="n">
-        <x:v>70.2</x:v>
+        <x:v>70.1</x:v>
       </x:c>
       <x:c r="FZ13" s="4" t="n">
         <x:v>69.9</x:v>
@@ -7422,543 +7520,555 @@
       <x:c r="GH13" s="4" t="n">
         <x:v>71.6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:190">
+      <x:c r="GI13" s="4" t="n">
+        <x:v>71.5</x:v>
+      </x:c>
+      <x:c r="GJ13" s="4" t="n">
+        <x:v>71.4</x:v>
+      </x:c>
+      <x:c r="GK13" s="4" t="n">
+        <x:v>71.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:193">
       <x:c r="A15" s="5" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:193">
+      <x:c r="A17" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:193">
+      <x:c r="A18" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:193">
+      <x:c r="A19" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:193">
+      <x:c r="A20" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:193">
+      <x:c r="A21" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:193">
+      <x:c r="A22" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:193">
+      <x:c r="A23" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:193">
+      <x:c r="A24" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:193">
+      <x:c r="A25" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:193">
+      <x:c r="A26" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:193">
+      <x:c r="A27" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:193">
+      <x:c r="A28" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:193">
+      <x:c r="A29" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:193">
+      <x:c r="A30" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:193">
+      <x:c r="A31" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:193">
+      <x:c r="A32" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:193">
+      <x:c r="A33" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:193">
+      <x:c r="A35" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:193">
+      <x:c r="A36" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:193">
+      <x:c r="A38" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:193">
+      <x:c r="A39" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:193">
+      <x:c r="A40" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:193">
+      <x:c r="A41" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:193">
+      <x:c r="A42" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:193">
+      <x:c r="A44" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:193">
+      <x:c r="A45" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:193">
+      <x:c r="A46" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:193">
+      <x:c r="A50" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:193">
+      <x:c r="A52" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:193">
+      <x:c r="A53" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:193">
+      <x:c r="A54" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:193">
+      <x:c r="A55" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:193">
+      <x:c r="A56" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:193">
+      <x:c r="A57" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:193">
+      <x:c r="A58" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:193">
+      <x:c r="A59" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:193">
+      <x:c r="A60" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:193">
+      <x:c r="A61" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:193">
+      <x:c r="A62" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:193">
+      <x:c r="A63" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:193">
+      <x:c r="A64" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:193">
+      <x:c r="A65" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:193">
+      <x:c r="A66" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:193">
+      <x:c r="A67" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:193">
+      <x:c r="A68" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:193">
+      <x:c r="A69" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:193">
+      <x:c r="A70" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:193">
+      <x:c r="A71" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:193">
+      <x:c r="A72" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:193">
+      <x:c r="A73" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:193">
+      <x:c r="A74" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:193">
+      <x:c r="A75" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:193">
+      <x:c r="A76" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:193">
+      <x:c r="A77" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:193">
+      <x:c r="A78" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:193">
+      <x:c r="A79" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:193">
+      <x:c r="A80" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:193">
+      <x:c r="A81" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:193">
+      <x:c r="A82" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:193">
+      <x:c r="A83" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:193">
+      <x:c r="A84" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:193">
+      <x:c r="A85" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:193">
+      <x:c r="A86" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:193">
+      <x:c r="A87" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:193">
+      <x:c r="A88" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:193">
+      <x:c r="A89" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:193">
+      <x:c r="A90" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:193">
+      <x:c r="A91" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:193">
+      <x:c r="A92" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:190">
-      <x:c r="A17" s="0" t="s">
+    <x:row r="93" spans="1:193">
+      <x:c r="A93" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:193">
+      <x:c r="A94" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:190">
-      <x:c r="A18" s="0" t="s">
+    <x:row r="95" spans="1:193">
+      <x:c r="A95" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:193">
+      <x:c r="A96" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:190">
-      <x:c r="A19" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:190">
-      <x:c r="A20" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:190">
-      <x:c r="A21" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:190">
-      <x:c r="A22" s="0" t="s">
+    <x:row r="97" spans="1:193">
+      <x:c r="A97" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:193">
+      <x:c r="A101" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:190">
-      <x:c r="A23" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:190">
-      <x:c r="A24" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:190">
-      <x:c r="A25" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:190">
-      <x:c r="A26" s="0" t="s">
+    <x:row r="102" spans="1:193">
+      <x:c r="A102" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:193">
+      <x:c r="A103" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:190">
-      <x:c r="A27" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:190">
-      <x:c r="A28" s="0" t="s">
+    <x:row r="104" spans="1:193">
+      <x:c r="A104" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:193">
+      <x:c r="A105" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:190">
-      <x:c r="A29" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:190">
-      <x:c r="A30" s="0" t="s">
+    <x:row r="106" spans="1:193">
+      <x:c r="A106" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:193">
+      <x:c r="A107" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:190">
-      <x:c r="A31" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:190">
-      <x:c r="A32" s="0" t="s">
+    <x:row r="108" spans="1:193">
+      <x:c r="A108" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:193">
+      <x:c r="A109" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:190">
-      <x:c r="A33" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:190">
-      <x:c r="A35" s="0" t="s">
-        <x:v>211</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:190">
-      <x:c r="A36" s="0" t="s">
+    <x:row r="110" spans="1:193">
+      <x:c r="A110" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:193">
+      <x:c r="A111" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:190">
-      <x:c r="A38" s="0" t="s">
+    <x:row r="112" spans="1:193">
+      <x:c r="A112" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:193">
+      <x:c r="A113" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:190">
-      <x:c r="A39" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:190">
-      <x:c r="A40" s="0" t="s">
-        <x:v>214</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:190">
-      <x:c r="A41" s="0" t="s">
-        <x:v>215</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:190">
-      <x:c r="A42" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:190">
-      <x:c r="A44" s="0" t="s">
-        <x:v>217</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:190">
-      <x:c r="A45" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:190">
-      <x:c r="A46" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:190">
-      <x:c r="A50" s="0" t="s">
-        <x:v>220</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:190">
-      <x:c r="A52" s="0" t="s">
-        <x:v>221</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:190">
-      <x:c r="A53" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:190">
-      <x:c r="A54" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:190">
-      <x:c r="A55" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:190">
-      <x:c r="A56" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:190">
-      <x:c r="A57" s="0" t="s">
+    <x:row r="114" spans="1:193">
+      <x:c r="A114" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:193">
+      <x:c r="A116" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:190">
-      <x:c r="A58" s="0" t="s">
-        <x:v>223</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:190">
-      <x:c r="A59" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:190">
-      <x:c r="A60" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:190">
-      <x:c r="A61" s="0" t="s">
+    <x:row r="117" spans="1:193">
+      <x:c r="A117" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:193">
+      <x:c r="A118" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:190">
-      <x:c r="A62" s="0" t="s">
-        <x:v>224</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:190">
-      <x:c r="A63" s="0" t="s">
+    <x:row r="119" spans="1:193">
+      <x:c r="A119" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:193">
+      <x:c r="A120" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:190">
-      <x:c r="A64" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:190">
-      <x:c r="A65" s="0" t="s">
+    <x:row r="121" spans="1:193">
+      <x:c r="A121" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:193">
+      <x:c r="A122" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:190">
-      <x:c r="A66" s="0" t="s">
-        <x:v>224</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:190">
-      <x:c r="A67" s="0" t="s">
+    <x:row r="123" spans="1:193">
+      <x:c r="A123" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:193">
+      <x:c r="A124" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:190">
-      <x:c r="A68" s="0" t="s">
-        <x:v>224</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:190">
-      <x:c r="A69" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:190">
-      <x:c r="A70" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:190">
-      <x:c r="A71" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:190">
-      <x:c r="A72" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:190">
-      <x:c r="A73" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:190">
-      <x:c r="A74" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:190">
-      <x:c r="A75" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:190">
-      <x:c r="A76" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:190">
-      <x:c r="A77" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:190">
-      <x:c r="A78" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:190">
-      <x:c r="A79" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:190">
-      <x:c r="A80" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:190">
-      <x:c r="A81" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:190">
-      <x:c r="A82" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:190">
-      <x:c r="A83" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:190">
-      <x:c r="A84" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:190">
-      <x:c r="A85" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:190">
-      <x:c r="A86" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:190">
-      <x:c r="A87" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:190">
-      <x:c r="A88" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:190">
-      <x:c r="A89" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:190">
-      <x:c r="A90" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:190">
-      <x:c r="A91" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:190">
-      <x:c r="A92" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:190">
-      <x:c r="A93" s="0" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:190">
-      <x:c r="A94" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:190">
-      <x:c r="A95" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:190">
-      <x:c r="A96" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:190">
-      <x:c r="A97" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:190">
-      <x:c r="A101" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:190">
-      <x:c r="A102" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:190">
-      <x:c r="A103" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="1:190">
-      <x:c r="A104" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105" spans="1:190">
-      <x:c r="A105" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="1:190">
-      <x:c r="A106" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:190">
-      <x:c r="A107" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="1:190">
-      <x:c r="A108" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:190">
-      <x:c r="A109" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:190">
-      <x:c r="A110" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:190">
-      <x:c r="A111" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:190">
-      <x:c r="A112" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:190">
-      <x:c r="A113" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="114" spans="1:190">
-      <x:c r="A114" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="116" spans="1:190">
-      <x:c r="A116" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:190">
-      <x:c r="A117" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:190">
-      <x:c r="A118" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:190">
-      <x:c r="A119" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:190">
-      <x:c r="A120" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:190">
-      <x:c r="A121" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="122" spans="1:190">
-      <x:c r="A122" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="123" spans="1:190">
-      <x:c r="A123" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:190">
-      <x:c r="A124" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:190">
+    <x:row r="125" spans="1:193">
       <x:c r="A125" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:190">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:193">
       <x:c r="A126" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:190">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:193">
       <x:c r="A127" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="128" spans="1:190">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:193">
       <x:c r="A128" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:190">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:193">
       <x:c r="A129" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="132" spans="1:190">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:193">
       <x:c r="A132" s="0" t="s">
-        <x:v>233</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:190">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:193">
       <x:c r="A133" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:190">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:193">
       <x:c r="A135" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:190">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:193">
       <x:c r="A136" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A15:GK15"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
